--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H2">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.547720692115765</v>
+        <v>0.6156346666666667</v>
       </c>
       <c r="N2">
-        <v>0.547720692115765</v>
+        <v>1.846904</v>
       </c>
       <c r="O2">
-        <v>0.2253292811984896</v>
+        <v>0.2237379936733492</v>
       </c>
       <c r="P2">
-        <v>0.2253292811984896</v>
+        <v>0.2422735703312657</v>
       </c>
       <c r="Q2">
-        <v>0.5857557569679572</v>
+        <v>0.9571703106933331</v>
       </c>
       <c r="R2">
-        <v>0.5857557569679572</v>
+        <v>8.614532796239999</v>
       </c>
       <c r="S2">
-        <v>0.2253292811984896</v>
+        <v>0.2237379936733492</v>
       </c>
       <c r="T2">
-        <v>0.2253292811984896</v>
+        <v>0.2422735703312657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H3">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.966690996953197</v>
+        <v>1.046115666666667</v>
       </c>
       <c r="N3">
-        <v>0.966690996953197</v>
+        <v>3.138347</v>
       </c>
       <c r="O3">
-        <v>0.3976913609801624</v>
+        <v>0.3801862258302404</v>
       </c>
       <c r="P3">
-        <v>0.3976913609801624</v>
+        <v>0.4116827580796926</v>
       </c>
       <c r="Q3">
-        <v>1.033820384778797</v>
+        <v>1.626469255063333</v>
       </c>
       <c r="R3">
-        <v>1.033820384778797</v>
+        <v>14.63822329557</v>
       </c>
       <c r="S3">
-        <v>0.3976913609801624</v>
+        <v>0.3801862258302404</v>
       </c>
       <c r="T3">
-        <v>0.3976913609801624</v>
+        <v>0.4116827580796926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H4">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.191566468079734</v>
+        <v>0.2522123333333333</v>
       </c>
       <c r="N4">
-        <v>0.191566468079734</v>
+        <v>0.756637</v>
       </c>
       <c r="O4">
-        <v>0.07880939167625327</v>
+        <v>0.09166066255691789</v>
       </c>
       <c r="P4">
-        <v>0.07880939167625327</v>
+        <v>0.09925429120015868</v>
       </c>
       <c r="Q4">
-        <v>0.2048693122881067</v>
+        <v>0.3921321694966666</v>
       </c>
       <c r="R4">
-        <v>0.2048693122881067</v>
+        <v>3.52918952547</v>
       </c>
       <c r="S4">
-        <v>0.07880939167625327</v>
+        <v>0.09166066255691789</v>
       </c>
       <c r="T4">
-        <v>0.07880939167625327</v>
+        <v>0.09925429120015868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H5">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.175872952809918</v>
+        <v>0.2060793333333334</v>
       </c>
       <c r="N5">
-        <v>0.175872952809918</v>
+        <v>0.6182380000000001</v>
       </c>
       <c r="O5">
-        <v>0.07235316578205654</v>
+        <v>0.07489470472348539</v>
       </c>
       <c r="P5">
-        <v>0.07235316578205654</v>
+        <v>0.08109935739727731</v>
       </c>
       <c r="Q5">
-        <v>0.1880860009239701</v>
+        <v>0.3204059650866667</v>
       </c>
       <c r="R5">
-        <v>0.1880860009239701</v>
+        <v>2.88365368578</v>
       </c>
       <c r="S5">
-        <v>0.07235316578205654</v>
+        <v>0.07489470472348539</v>
       </c>
       <c r="T5">
-        <v>0.07235316578205654</v>
+        <v>0.08109935739727731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H6">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5489057326609</v>
+        <v>0.6315455</v>
       </c>
       <c r="N6">
-        <v>0.5489057326609</v>
+        <v>1.263091</v>
       </c>
       <c r="O6">
-        <v>0.2258168003630383</v>
+        <v>0.2295204132160071</v>
       </c>
       <c r="P6">
-        <v>0.2258168003630383</v>
+        <v>0.1656900229916058</v>
       </c>
       <c r="Q6">
-        <v>0.587023089627733</v>
+        <v>0.9819079970349999</v>
       </c>
       <c r="R6">
-        <v>0.587023089627733</v>
+        <v>5.891447982209999</v>
       </c>
       <c r="S6">
-        <v>0.2258168003630383</v>
+        <v>0.2295204132160071</v>
       </c>
       <c r="T6">
-        <v>0.2258168003630383</v>
+        <v>0.1656900229916058</v>
       </c>
     </row>
   </sheetData>
